--- a/analysis/metadata/P16_3/P16_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P16_3/P16_3_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>21/07/2016 00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -502,11 +502,6 @@
         </is>
       </c>
       <c r="O2" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -546,7 +541,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>21/07/2016 00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -575,11 +570,6 @@
         </is>
       </c>
       <c r="O3" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -619,7 +609,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>22/07/2016 00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -648,11 +638,6 @@
         </is>
       </c>
       <c r="O4" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -692,7 +677,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>25/05/2016 00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -721,11 +706,6 @@
         </is>
       </c>
       <c r="O5" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -765,7 +745,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>21/07/2016 00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -794,11 +774,6 @@
         </is>
       </c>
       <c r="O6" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -838,7 +813,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>22/09/2017 00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -867,11 +842,6 @@
         </is>
       </c>
       <c r="O7" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -911,7 +881,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>22/09/2017 00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -940,11 +910,6 @@
         </is>
       </c>
       <c r="O8" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -984,7 +949,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>22/09/2017 00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1013,11 +978,6 @@
         </is>
       </c>
       <c r="O9" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -1057,7 +1017,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>03/06/2022 00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1086,11 +1046,6 @@
         </is>
       </c>
       <c r="O10" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -1130,7 +1085,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>03/06/2022 00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1159,11 +1114,6 @@
         </is>
       </c>
       <c r="O11" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -1203,7 +1153,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>20/05/2016 00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1232,11 +1182,6 @@
         </is>
       </c>
       <c r="O12" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -1276,7 +1221,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1305,11 +1250,6 @@
         </is>
       </c>
       <c r="O13" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -1323,7 +1263,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>water(dilute)</t>
+          <t>water</t>
         </is>
       </c>
       <c r="C14">
@@ -1337,11 +1277,6 @@
           <t>drinking_water</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>sjælsø</t>
@@ -1349,7 +1284,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>05/01/2017 00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1370,21 +1305,6 @@
       <c r="L14" t="inlineStr">
         <is>
           <t>Urban</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Waterworks stage</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1316,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>water(dilute)</t>
+          <t>water</t>
         </is>
       </c>
       <c r="C15">
@@ -1410,11 +1330,6 @@
           <t>drinking_water</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>sjælsø</t>
@@ -1422,7 +1337,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>08/03/2017 00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1443,21 +1358,6 @@
       <c r="L15" t="inlineStr">
         <is>
           <t>Urban</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Waterworks stage</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1369,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>water(dilute)</t>
+          <t>water</t>
         </is>
       </c>
       <c r="C16">
@@ -1483,11 +1383,6 @@
           <t>drinking_water</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>sjælsø</t>
@@ -1495,7 +1390,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>03/05/2017 00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1516,21 +1411,6 @@
       <c r="L16" t="inlineStr">
         <is>
           <t>Urban</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Waterworks stage</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1422,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>water(dilute)</t>
+          <t>water</t>
         </is>
       </c>
       <c r="C17">
@@ -1556,11 +1436,6 @@
           <t>drinking_water</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>sjælsø</t>
@@ -1568,7 +1443,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>04/07/2017 00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1589,21 +1464,6 @@
       <c r="L17" t="inlineStr">
         <is>
           <t>Urban</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Waterworks stage</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1475,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>water(dilute)</t>
+          <t>water</t>
         </is>
       </c>
       <c r="C18">
@@ -1629,11 +1489,6 @@
           <t>drinking_water</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
           <t>sjælsø</t>
@@ -1641,7 +1496,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>05/01/2017 00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1662,21 +1517,6 @@
       <c r="L18" t="inlineStr">
         <is>
           <t>Urban</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Waterworks stage</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1528,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>water(dilute)</t>
+          <t>water</t>
         </is>
       </c>
       <c r="C19">
@@ -1702,11 +1542,6 @@
           <t>drinking_water</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>sjælsø</t>
@@ -1714,7 +1549,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>08/03/2017 00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1735,21 +1570,6 @@
       <c r="L19" t="inlineStr">
         <is>
           <t>Urban</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Waterworks stage</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1581,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>water(dilute)</t>
+          <t>water</t>
         </is>
       </c>
       <c r="C20">
@@ -1775,11 +1595,6 @@
           <t>drinking_water</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>sjælsø</t>
@@ -1787,7 +1602,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>03/05/2017 00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1808,21 +1623,6 @@
       <c r="L20" t="inlineStr">
         <is>
           <t>Urban</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Waterworks stage</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1634,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>water(dilute)</t>
+          <t>water</t>
         </is>
       </c>
       <c r="C21">
@@ -1848,11 +1648,6 @@
           <t>drinking_water</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>sjælsø</t>
@@ -1860,7 +1655,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>04/07/2017 00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1881,21 +1676,6 @@
       <c r="L21" t="inlineStr">
         <is>
           <t>Urban</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>Waterworks stage</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1687,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>water(dilute)</t>
+          <t>water</t>
         </is>
       </c>
       <c r="C22">
@@ -1921,11 +1701,6 @@
           <t>drinking_water</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>sjælsø</t>
@@ -1933,7 +1708,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>08/03/2017 00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1954,21 +1729,6 @@
       <c r="L22" t="inlineStr">
         <is>
           <t>Urban</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>Waterworks stage</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1740,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>water(dilute)</t>
+          <t>water</t>
         </is>
       </c>
       <c r="C23">
@@ -1994,11 +1754,6 @@
           <t>drinking_water</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>sjælsø</t>
@@ -2006,7 +1761,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>03/05/2017 00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2027,21 +1782,6 @@
       <c r="L23" t="inlineStr">
         <is>
           <t>Urban</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Waterworks stage</t>
         </is>
       </c>
     </row>
@@ -2053,7 +1793,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>water(dilute)</t>
+          <t>water</t>
         </is>
       </c>
       <c r="C24">
@@ -2067,11 +1807,6 @@
           <t>drinking_water</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
       <c r="G24" t="inlineStr">
         <is>
           <t>sjælsø</t>
@@ -2079,7 +1814,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>04/07/2017 00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2100,21 +1835,6 @@
       <c r="L24" t="inlineStr">
         <is>
           <t>Urban</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>Waterworks stage</t>
         </is>
       </c>
     </row>
@@ -2126,7 +1846,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>water(dilute)</t>
+          <t>water</t>
         </is>
       </c>
       <c r="C25">
@@ -2152,7 +1872,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>10/05/2017 00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2199,7 +1919,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>water(dilute)</t>
+          <t>water</t>
         </is>
       </c>
       <c r="C26">
@@ -2225,7 +1945,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>17/05/2017 00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2272,7 +1992,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>water(dilute)</t>
+          <t>water</t>
         </is>
       </c>
       <c r="C27">
@@ -2298,7 +2018,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>12/09/2017 00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2345,7 +2065,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>water(dilute)</t>
+          <t>water</t>
         </is>
       </c>
       <c r="C28">
@@ -2371,7 +2091,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>20/09/2017 00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">

--- a/analysis/metadata/P16_3/P16_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P16_3/P16_3_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21/07/2016 00:00</t>
+          <t>2016-07-21</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21/07/2016 00:00</t>
+          <t>2016-07-21</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>22/07/2016 00:00</t>
+          <t>2016-07-22</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>25/05/2016 00:00</t>
+          <t>2016-05-25</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21/07/2016 00:00</t>
+          <t>2016-07-21</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>22/09/2017 00:00</t>
+          <t>2017-09-22</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>22/09/2017 00:00</t>
+          <t>2017-09-22</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>22/09/2017 00:00</t>
+          <t>2017-09-22</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>03/06/2022 00:00</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>03/06/2022 00:00</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>20/05/2016 00:00</t>
+          <t>2016-05-20</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>05/01/2017 00:00</t>
+          <t>2017-01-05</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08/03/2017 00:00</t>
+          <t>2017-03-08</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>03/05/2017 00:00</t>
+          <t>2017-05-03</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>04/07/2017 00:00</t>
+          <t>2017-07-04</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>05/01/2017 00:00</t>
+          <t>2017-01-05</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>08/03/2017 00:00</t>
+          <t>2017-03-08</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>03/05/2017 00:00</t>
+          <t>2017-05-03</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>04/07/2017 00:00</t>
+          <t>2017-07-04</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>08/03/2017 00:00</t>
+          <t>2017-03-08</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>03/05/2017 00:00</t>
+          <t>2017-05-03</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>04/07/2017 00:00</t>
+          <t>2017-07-04</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>10/05/2017 00:00</t>
+          <t>2017-05-10</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>17/05/2017 00:00</t>
+          <t>2017-05-17</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>12/09/2017 00:00</t>
+          <t>2017-09-12</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>20/09/2017 00:00</t>
+          <t>2017-09-20</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">

--- a/analysis/metadata/P16_3/P16_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P16_3/P16_3_minimal_metadata.xlsx
@@ -1221,7 +1221,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2016-04-28</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">

--- a/analysis/metadata/P16_3/P16_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P16_3/P16_3_minimal_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -463,7 +463,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -498,19 +498,24 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MFD03267</t>
+          <t>MFD03266</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -519,10 +524,10 @@
         </is>
       </c>
       <c r="C3">
-        <v>55.8341</v>
+        <v>55.8127</v>
       </c>
       <c r="D3">
-        <v>12.5451</v>
+        <v>12.4781</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -531,12 +536,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>tørød</t>
+          <t>holte</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -546,7 +551,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>tørød vandværk, filter material (sand) from 1 afterfilter (top)</t>
+          <t>holte vandværk, filter material (sand) from 1 afterfilter (top)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -571,14 +576,19 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MFD03268</t>
+          <t>MFD03267</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -587,10 +597,10 @@
         </is>
       </c>
       <c r="C4">
-        <v>55.757</v>
+        <v>55.8341</v>
       </c>
       <c r="D4">
-        <v>12.3214</v>
+        <v>12.5451</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -599,22 +609,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>måløv</t>
+          <t>tørød</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2016-07-22</t>
+          <t>2016-07-21</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>måløv vandværk, filter material (sand) from 1 afterfilter (top)</t>
+          <t>tørød vandværk, filter material (sand) from 1 afterfilter (top)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -634,19 +644,24 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MFD03269</t>
+          <t>MFD03267</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -655,10 +670,10 @@
         </is>
       </c>
       <c r="C5">
-        <v>55.8748</v>
+        <v>55.8341</v>
       </c>
       <c r="D5">
-        <v>12.4754</v>
+        <v>12.5451</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -667,22 +682,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>sjælsø</t>
+          <t>tørød</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2016-05-25</t>
+          <t>2016-07-21</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sjælsø vandværk, filter material (sand) from 1 afterfilter (top)</t>
+          <t>tørød vandværk, filter material (sand) from 1 afterfilter (top)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -707,14 +722,19 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MFD03270</t>
+          <t>MFD03268</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -723,10 +743,10 @@
         </is>
       </c>
       <c r="C6">
-        <v>55.8737</v>
+        <v>55.757</v>
       </c>
       <c r="D6">
-        <v>12.4799</v>
+        <v>12.3214</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -735,22 +755,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>søborg</t>
+          <t>måløv</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2016-07-21</t>
+          <t>2016-07-22</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>søborg vandværk, filter material (sand) from 1 afterfilter (top)</t>
+          <t>måløv vandværk, filter material (sand) from 1 afterfilter (top)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -770,19 +790,24 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MFD03271</t>
+          <t>MFD03268</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -791,10 +816,10 @@
         </is>
       </c>
       <c r="C7">
-        <v>55.7425</v>
+        <v>55.757</v>
       </c>
       <c r="D7">
-        <v>12.3947</v>
+        <v>12.3214</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -803,22 +828,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>lautrup</t>
+          <t>måløv</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2017-09-22</t>
+          <t>2016-07-22</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>lautrup vandværk, filter material (sand) from 1 afterfilter (top)</t>
+          <t>måløv vandværk, filter material (sand) from 1 afterfilter (top)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -843,14 +868,19 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MFD03272</t>
+          <t>MFD03269</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -859,10 +889,10 @@
         </is>
       </c>
       <c r="C8">
-        <v>55.743</v>
+        <v>55.8748</v>
       </c>
       <c r="D8">
-        <v>12.3315</v>
+        <v>12.4754</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -871,22 +901,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>pilegård</t>
+          <t>sjælsø</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2017-09-22</t>
+          <t>2016-05-25</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>pilegård vandværk, filter material (sand) from 1 afterfilter (top)</t>
+          <t>sjælsø vandværk, filter material (sand) from 1 afterfilter (top)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -906,19 +936,24 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MFD03273</t>
+          <t>MFD03269</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -927,10 +962,10 @@
         </is>
       </c>
       <c r="C9">
-        <v>55.7333</v>
+        <v>55.8748</v>
       </c>
       <c r="D9">
-        <v>12.3566</v>
+        <v>12.4754</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -939,22 +974,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>ballerup</t>
+          <t>sjælsø</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2017-09-22</t>
+          <t>2016-05-25</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>ballerup vandværk, filter material (sand) from 1 afterfilter (top)</t>
+          <t>sjælsø vandværk, filter material (sand) from 1 afterfilter (top)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -979,14 +1014,19 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MFD03274</t>
+          <t>MFD03270</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -995,10 +1035,10 @@
         </is>
       </c>
       <c r="C10">
-        <v>55.7032</v>
+        <v>55.8737</v>
       </c>
       <c r="D10">
-        <v>12.4551</v>
+        <v>12.4799</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1007,22 +1047,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>islevbro</t>
+          <t>søborg</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2016-07-21</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>islevbro vandværk filter 7, filter material (sand) from 1 afterfilter (top)</t>
+          <t>søborg vandværk, filter material (sand) from 1 afterfilter (top)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1042,19 +1082,24 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MFD03275</t>
+          <t>MFD03270</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1063,10 +1108,10 @@
         </is>
       </c>
       <c r="C11">
-        <v>55.7032</v>
+        <v>55.8737</v>
       </c>
       <c r="D11">
-        <v>12.4551</v>
+        <v>12.4799</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1075,22 +1120,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>islevbro</t>
+          <t>søborg</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2016-07-21</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>islevbro vandværk filter 2, filter material (sand) from 1 afterfilter (top)</t>
+          <t>søborg vandværk, filter material (sand) from 1 afterfilter (top)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1115,14 +1160,19 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MFD03276</t>
+          <t>MFD03271</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1131,10 +1181,10 @@
         </is>
       </c>
       <c r="C12">
-        <v>55.696</v>
+        <v>55.7425</v>
       </c>
       <c r="D12">
-        <v>11.6791</v>
+        <v>12.3947</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1143,22 +1193,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>langerød</t>
+          <t>lautrup</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2016-05-20</t>
+          <t>2017-09-22</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>langerød vanvværk, filter material (sand) from 1 afterfilter (top)</t>
+          <t>lautrup vandværk, filter material (sand) from 1 afterfilter (top)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1178,19 +1228,24 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MFD03277</t>
+          <t>MFD03271</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1199,10 +1254,10 @@
         </is>
       </c>
       <c r="C13">
-        <v>55.6625</v>
+        <v>55.7425</v>
       </c>
       <c r="D13">
-        <v>12.4068</v>
+        <v>12.3947</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1211,22 +1266,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>glostrup</t>
+          <t>lautrup</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2016-04-28</t>
+          <t>2017-09-22</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>glostrup vandværk, filter material (sand) from 1 afterfilter (top)</t>
+          <t>lautrup vandværk, filter material (sand) from 1 afterfilter (top)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1251,45 +1306,55 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MFD03278</t>
+          <t>MFD03272</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>sandfilter</t>
         </is>
       </c>
       <c r="C14">
-        <v>55.8748</v>
+        <v>55.743</v>
       </c>
       <c r="D14">
-        <v>12.4754</v>
+        <v>12.3315</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>drinking_water</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sjælsø</t>
+          <t>pilegård</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2017-01-05</t>
+          <t>2017-09-22</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>161 raw water, 05-01-17</t>
+          <t>pilegård vandværk, filter material (sand) from 1 afterfilter (top)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1305,44 +1370,64 @@
       <c r="L14" t="inlineStr">
         <is>
           <t>Urban</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MFD03279</t>
+          <t>MFD03272</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>sandfilter</t>
         </is>
       </c>
       <c r="C15">
-        <v>55.8748</v>
+        <v>55.743</v>
       </c>
       <c r="D15">
-        <v>12.4754</v>
+        <v>12.3315</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>drinking_water</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sjælsø</t>
+          <t>pilegård</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2017-03-08</t>
+          <t>2017-09-22</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>161 raw water winter (jan + march)</t>
+          <t>pilegård vandværk, filter material (sand) from 1 afterfilter (top)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1358,44 +1443,64 @@
       <c r="L15" t="inlineStr">
         <is>
           <t>Urban</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MFD03280</t>
+          <t>MFD03273</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>sandfilter</t>
         </is>
       </c>
       <c r="C16">
-        <v>55.8748</v>
+        <v>55.7333</v>
       </c>
       <c r="D16">
-        <v>12.4754</v>
+        <v>12.3566</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>drinking_water</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>sjælsø</t>
+          <t>ballerup</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2017-05-03</t>
+          <t>2017-09-22</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>161 raw water summer (may + june)</t>
+          <t>ballerup vandværk, filter material (sand) from 1 afterfilter (top)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1411,44 +1516,64 @@
       <c r="L16" t="inlineStr">
         <is>
           <t>Urban</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MFD03281</t>
+          <t>MFD03273</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>sandfilter</t>
         </is>
       </c>
       <c r="C17">
-        <v>55.8748</v>
+        <v>55.7333</v>
       </c>
       <c r="D17">
-        <v>12.4754</v>
+        <v>12.3566</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>drinking_water</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>sjælsø</t>
+          <t>ballerup</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2017-07-04</t>
+          <t>2017-09-22</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>161 raw water last, 04-7-17</t>
+          <t>ballerup vandværk, filter material (sand) from 1 afterfilter (top)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1464,44 +1589,64 @@
       <c r="L17" t="inlineStr">
         <is>
           <t>Urban</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MFD03282</t>
+          <t>MFD03274</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>sandfilter</t>
         </is>
       </c>
       <c r="C18">
-        <v>55.8748</v>
+        <v>55.7032</v>
       </c>
       <c r="D18">
-        <v>12.4754</v>
+        <v>12.4551</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>drinking_water</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sjælsø</t>
+          <t>islevbro</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2017-01-05</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>173 after sandfilters 05-01-17</t>
+          <t>islevbro vandværk filter 7, filter material (sand) from 1 afterfilter (top)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1517,44 +1662,64 @@
       <c r="L18" t="inlineStr">
         <is>
           <t>Urban</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MFD03283</t>
+          <t>MFD03274</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>sandfilter</t>
         </is>
       </c>
       <c r="C19">
-        <v>55.8748</v>
+        <v>55.7032</v>
       </c>
       <c r="D19">
-        <v>12.4754</v>
+        <v>12.4551</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>drinking_water</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>sjælsø</t>
+          <t>islevbro</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2017-03-08</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>173 after sandfilters winter (jan + march)</t>
+          <t>islevbro vandværk filter 7, filter material (sand) from 1 afterfilter (top)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1570,44 +1735,64 @@
       <c r="L19" t="inlineStr">
         <is>
           <t>Urban</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MFD03284</t>
+          <t>MFD03275</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>sandfilter</t>
         </is>
       </c>
       <c r="C20">
-        <v>55.8748</v>
+        <v>55.7032</v>
       </c>
       <c r="D20">
-        <v>12.4754</v>
+        <v>12.4551</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>drinking_water</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>sjælsø</t>
+          <t>islevbro</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2017-05-03</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>173 after sandfilters summer (april+ may + june)</t>
+          <t>islevbro vandværk filter 2, filter material (sand) from 1 afterfilter (top)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1623,44 +1808,64 @@
       <c r="L20" t="inlineStr">
         <is>
           <t>Urban</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MFD03285</t>
+          <t>MFD03275</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>sandfilter</t>
         </is>
       </c>
       <c r="C21">
-        <v>55.8748</v>
+        <v>55.7032</v>
       </c>
       <c r="D21">
-        <v>12.4754</v>
+        <v>12.4551</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>drinking_water</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>sjælsø</t>
+          <t>islevbro</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2017-07-04</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>173 after sandfilters last 04-07-17</t>
+          <t>islevbro vandværk filter 2, filter material (sand) from 1 afterfilter (top)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1676,44 +1881,64 @@
       <c r="L21" t="inlineStr">
         <is>
           <t>Urban</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MFD03286</t>
+          <t>MFD03276</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>sandfilter</t>
         </is>
       </c>
       <c r="C22">
-        <v>55.8748</v>
+        <v>55.696</v>
       </c>
       <c r="D22">
-        <v>12.4754</v>
+        <v>11.6791</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>drinking_water</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>sjælsø</t>
+          <t>langerød</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2017-03-08</t>
+          <t>2016-05-20</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>263 treated water winter (jan + march)</t>
+          <t>langerød vanvværk, filter material (sand) from 1 afterfilter (top)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1729,44 +1954,64 @@
       <c r="L22" t="inlineStr">
         <is>
           <t>Urban</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MFD03287</t>
+          <t>MFD03276</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>sandfilter</t>
         </is>
       </c>
       <c r="C23">
-        <v>55.8748</v>
+        <v>55.696</v>
       </c>
       <c r="D23">
-        <v>12.4754</v>
+        <v>11.6791</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>drinking_water</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>sjælsø</t>
+          <t>langerød</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2017-05-03</t>
+          <t>2016-05-20</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>263 treated water summer (may + june)</t>
+          <t>langerød vanvværk, filter material (sand) from 1 afterfilter (top)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1782,44 +2027,64 @@
       <c r="L23" t="inlineStr">
         <is>
           <t>Urban</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MFD03288</t>
+          <t>MFD03277</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>sandfilter</t>
         </is>
       </c>
       <c r="C24">
-        <v>55.8748</v>
+        <v>55.6625</v>
       </c>
       <c r="D24">
-        <v>12.4754</v>
+        <v>12.4068</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>drinking_water</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>sjælsø</t>
+          <t>glostrup</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2017-07-04</t>
+          <t>2016-04-28</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>263 treated water last 04-07-17</t>
+          <t>glostrup vandværk, filter material (sand) from 1 afterfilter (top)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1835,25 +2100,40 @@
       <c r="L24" t="inlineStr">
         <is>
           <t>Urban</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MFD03289</t>
+          <t>MFD03277</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>sandfilter</t>
         </is>
       </c>
       <c r="C25">
-        <v>55.7335</v>
+        <v>55.6625</v>
       </c>
       <c r="D25">
-        <v>12.5586</v>
+        <v>12.4068</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1867,17 +2147,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>sjælsø</t>
+          <t>glostrup</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2017-05-10</t>
+          <t>2016-04-28</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>distribution network 1 svejgårdsvej, 10-05-17</t>
+          <t>glostrup vandværk, filter material (sand) from 1 afterfilter (top)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1902,19 +2182,19 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Drinking water</t>
+          <t>waterworks stage</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Waterworks stage</t>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MFD03290</t>
+          <t>MFD03278</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1923,10 +2203,10 @@
         </is>
       </c>
       <c r="C26">
-        <v>55.8454</v>
+        <v>55.8748</v>
       </c>
       <c r="D26">
-        <v>12.4377</v>
+        <v>12.4754</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1935,7 +2215,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3120</t>
+          <t>3110</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1945,12 +2225,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2017-05-17</t>
+          <t>2017-01-05</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>distribution network 2 fredensvej (42), 17-05-17</t>
+          <t>161 raw water, 05-01-17</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1970,24 +2250,24 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Drinking water</t>
+          <t>waterworks stage</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Waterworks stage</t>
+          <t>uncleaned/raw water</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MFD03291</t>
+          <t>MFD03278</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1996,10 +2276,10 @@
         </is>
       </c>
       <c r="C27">
-        <v>55.9001</v>
+        <v>55.8748</v>
       </c>
       <c r="D27">
-        <v>12.4918</v>
+        <v>12.4754</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2008,7 +2288,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3120</t>
+          <t>3110</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2018,12 +2298,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2017-09-12</t>
+          <t>2017-01-05</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>distribution network 3 forbrændingen (328), 12-09-17</t>
+          <t>161 raw water, 05-01-17</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2048,85 +2328,2016 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Drinking water</t>
+          <t>waterworks stage</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Waterworks stage</t>
+          <t>uncleaned/raw water</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>MFD03279</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>55.8748</v>
+      </c>
+      <c r="D28">
+        <v>12.4754</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3110</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2017-03-08</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>161 raw water winter (jan + march)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>uncleaned/raw water</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MFD03279</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>55.8748</v>
+      </c>
+      <c r="D29">
+        <v>12.4754</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3110</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2017-03-08</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>161 raw water winter (jan + march)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>uncleaned/raw water</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MFD03280</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>55.8748</v>
+      </c>
+      <c r="D30">
+        <v>12.4754</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3110</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2017-05-03</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>161 raw water summer (may + june)</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>uncleaned/raw water</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MFD03280</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>55.8748</v>
+      </c>
+      <c r="D31">
+        <v>12.4754</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3110</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2017-05-03</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>161 raw water summer (may + june)</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>uncleaned/raw water</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MFD03281</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>55.8748</v>
+      </c>
+      <c r="D32">
+        <v>12.4754</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3110</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2017-07-04</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>161 raw water last, 04-7-17</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>uncleaned/raw water</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MFD03281</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>55.8748</v>
+      </c>
+      <c r="D33">
+        <v>12.4754</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3110</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2017-07-04</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>161 raw water last, 04-7-17</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>uncleaned/raw water</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MFD03282</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>55.8748</v>
+      </c>
+      <c r="D34">
+        <v>12.4754</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2017-01-05</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>173 after sandfilters 05-01-17</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>filtered water</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MFD03282</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>55.8748</v>
+      </c>
+      <c r="D35">
+        <v>12.4754</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2017-01-05</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>173 after sandfilters 05-01-17</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>filtered water</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MFD03283</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>55.8748</v>
+      </c>
+      <c r="D36">
+        <v>12.4754</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2017-03-08</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>173 after sandfilters winter (jan + march)</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>filtered water</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MFD03283</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>55.8748</v>
+      </c>
+      <c r="D37">
+        <v>12.4754</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2017-03-08</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>173 after sandfilters winter (jan + march)</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>filtered water</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MFD03284</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>55.8748</v>
+      </c>
+      <c r="D38">
+        <v>12.4754</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2017-05-03</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>173 after sandfilters summer (april+ may + june)</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>filtered water</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MFD03284</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>55.8748</v>
+      </c>
+      <c r="D39">
+        <v>12.4754</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2017-05-03</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>173 after sandfilters summer (april+ may + june)</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>filtered water</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MFD03285</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>55.8748</v>
+      </c>
+      <c r="D40">
+        <v>12.4754</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2017-07-04</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>173 after sandfilters last 04-07-17</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>filtered water</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MFD03285</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>55.8748</v>
+      </c>
+      <c r="D41">
+        <v>12.4754</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2017-07-04</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>173 after sandfilters last 04-07-17</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>filtered water</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MFD03286</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>55.8748</v>
+      </c>
+      <c r="D42">
+        <v>12.4754</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2017-03-08</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>263 treated water winter (jan + march)</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>treated water</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MFD03286</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C43">
+        <v>55.8748</v>
+      </c>
+      <c r="D43">
+        <v>12.4754</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2017-03-08</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>263 treated water winter (jan + march)</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>treated water</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>MFD03287</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>55.8748</v>
+      </c>
+      <c r="D44">
+        <v>12.4754</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2017-05-03</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>263 treated water summer (may + june)</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>treated water</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MFD03287</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>55.8748</v>
+      </c>
+      <c r="D45">
+        <v>12.4754</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2017-05-03</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>263 treated water summer (may + june)</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>treated water</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MFD03288</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C46">
+        <v>55.8748</v>
+      </c>
+      <c r="D46">
+        <v>12.4754</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2017-07-04</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>263 treated water last 04-07-17</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>treated water</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MFD03288</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>55.8748</v>
+      </c>
+      <c r="D47">
+        <v>12.4754</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2017-07-04</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>263 treated water last 04-07-17</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>treated water</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MFD03289</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>55.7335</v>
+      </c>
+      <c r="D48">
+        <v>12.5586</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2017-05-10</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>distribution network 1 svejgårdsvej, 10-05-17</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>tap water</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MFD03289</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>55.7335</v>
+      </c>
+      <c r="D49">
+        <v>12.5586</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2017-05-10</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>distribution network 1 svejgårdsvej, 10-05-17</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>tap water</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>MFD03290</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>55.8454</v>
+      </c>
+      <c r="D50">
+        <v>12.4377</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2017-05-17</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>distribution network 2 fredensvej (42), 17-05-17</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>tap water</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>MFD03290</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>55.8454</v>
+      </c>
+      <c r="D51">
+        <v>12.4377</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2017-05-17</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>distribution network 2 fredensvej (42), 17-05-17</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>tap water</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MFD03291</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C52">
+        <v>55.9001</v>
+      </c>
+      <c r="D52">
+        <v>12.4918</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2017-09-12</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>distribution network 3 forbrændingen (328), 12-09-17</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>tap water</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MFD03291</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>55.9001</v>
+      </c>
+      <c r="D53">
+        <v>12.4918</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2017-09-12</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>distribution network 3 forbrændingen (328), 12-09-17</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>tap water</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
           <t>MFD03292</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>water</t>
         </is>
       </c>
-      <c r="C28">
+      <c r="C54">
         <v>55.6236</v>
       </c>
-      <c r="D28">
+      <c r="D54">
         <v>12.0473</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>sjælsø</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>2017-09-20</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>distribution network 4 ledreborg alle, 20-09-17</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>P16_3</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
         <is>
           <t>Drinking water</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Waterworks stage</t>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>tap water</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MFD03292</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>55.6236</v>
+      </c>
+      <c r="D55">
+        <v>12.0473</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>sjælsø</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2017-09-20</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>distribution network 4 ledreborg alle, 20-09-17</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>P16_3</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>tap water</t>
         </is>
       </c>
     </row>
